--- a/projects/elec_utils.xlsx
+++ b/projects/elec_utils.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahiruddinzahidanishah/Google Drive/Colab Notebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahiruddinzahidanishah/Documents/GitHub/zzahir1978.github.io/projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23232313-BC77-EF4F-AA35-9B26E91A04E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A8703B-2EC2-2B4A-9B61-4EF800152A9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="18160" windowHeight="13800" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1712,7 +1712,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1776,6 +1776,12 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+      <c r="C6">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">

--- a/projects/elec_utils.xlsx
+++ b/projects/elec_utils.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahiruddinzahidanishah/Documents/GitHub/zzahir1978.github.io/projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A8703B-2EC2-2B4A-9B61-4EF800152A9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B129AC-6457-544F-B874-F6B94E932AD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18160" windowHeight="13800" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18160" windowHeight="13800" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="2" r:id="rId1"/>
@@ -30,31 +30,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="14">
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
     <t>Mac</t>
   </si>
   <si>
-    <t>Apr</t>
-  </si>
-  <si>
     <t>May</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sep</t>
   </si>
   <si>
     <t>Usage (kWh)</t>
@@ -63,13 +42,34 @@
     <t>Amount (RM)</t>
   </si>
   <si>
-    <t>Oct</t>
+    <t>January</t>
   </si>
   <si>
-    <t>Nov</t>
+    <t>February</t>
   </si>
   <si>
-    <t>Dec</t>
+    <t>April</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -458,15 +458,15 @@
         <v>2014</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>261</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>288</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>348</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>263</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>350</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>324</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>346</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>268</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>292</v>
@@ -606,7 +606,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -616,15 +616,15 @@
         <v>2015</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>254</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>347</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>276</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>309</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>301</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>273</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>405</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>238</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>295</v>
@@ -764,7 +764,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -774,15 +774,15 @@
         <v>2016</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>246</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>399</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>530</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>465</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>494</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>342</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>305</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>409</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>336</v>
@@ -922,7 +922,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -932,15 +932,15 @@
         <v>2017</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>427</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>390</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>448</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>441</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>361</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>393</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>339</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>383</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>399</v>
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1090,15 +1090,15 @@
         <v>2018</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>342</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>455</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>426</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>419</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>490</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>315</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>357</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>412</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>389</v>
@@ -1238,7 +1238,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1248,15 +1248,15 @@
         <v>2019</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>370</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>444</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>399</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>373</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>413</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>285</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>366</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>280</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>348</v>
@@ -1395,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1406,15 +1406,15 @@
         <v>2020</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>355</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>314</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>350</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>350</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>350</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1221</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>368</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>344</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>360</v>
@@ -1554,7 +1554,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1564,15 +1564,15 @@
         <v>2021</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>322</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>378</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>378</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>361</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>357</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>393</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>361</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>436</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>396</v>
@@ -1712,7 +1712,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1722,15 +1722,15 @@
         <v>2022</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>359</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>323</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>384</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>460</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>300</v>
@@ -1785,22 +1785,22 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
